--- a/biology/Zoologie/Carcharodontosaurinae/Carcharodontosaurinae.xlsx
+++ b/biology/Zoologie/Carcharodontosaurinae/Carcharodontosaurinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giganotosaurinae, Giganotosaurini
 Les Carcharodontosaurinae (carcharodontosaurinés en français) sont une sous-famille fossile de dinosaures théropodes, classés parmi les Carcharodontosauridae. Ils vivaient en Amérique du Sud et en Afrique du Nord au Crétacé, de l'Aptien au Turonien, soit il y a environ entre ≃121,4 et 89,8 millions d'années. 
-Cette sous-famille a d'abord été nommée Giganotosaurinae par Coria &amp; Currie en 2006[1], mais dès l'année suivante Steve Brusatte et Paul Sereno[2] érigent la sous-famille des Carcharodontosaurinae en reléguant le clade ne regroupant que les trois espèces argentines au rang de tribu sous le nom de Giganotosaurini[2]. Ce changement est repris dans les publications ultérieures sur le sujet[3],[4],[5].
+Cette sous-famille a d'abord été nommée Giganotosaurinae par Coria &amp; Currie en 2006, mais dès l'année suivante Steve Brusatte et Paul Sereno érigent la sous-famille des Carcharodontosaurinae en reléguant le clade ne regroupant que les trois espèces argentines au rang de tribu sous le nom de Giganotosaurini. Ce changement est repris dans les publications ultérieures sur le sujet.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>† Carcharodontosaurus Albien à Turonien (Algérie, Maroc, Niger)
 † Giganotosaurus Cénomanien (Argentine)
@@ -546,9 +560,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cladogramme suivant est tiré de l'analyse phylogénétique réalisée en 2016 par Sebastián Apesteguía et ses collègues. Il montre la succession de clades : Carcharodontosauria, Carcharodontosauridae, Carcharodontosaurinae ainsi que la tribu des Giganotosaurini qui abrite les trois principaux genres argentins[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme suivant est tiré de l'analyse phylogénétique réalisée en 2016 par Sebastián Apesteguía et ses collègues. Il montre la succession de clades : Carcharodontosauria, Carcharodontosauridae, Carcharodontosaurinae ainsi que la tribu des Giganotosaurini qui abrite les trois principaux genres argentins :
 </t>
         </is>
       </c>
@@ -577,11 +593,13 @@
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>On voit des Giganotosaurus qui attaquent des Argentinosaurus dans un épisode de Sur la terre des dinosaures.
-Les Mapusaurus sont dépeints comme des chasseurs en meutes dans Planète Dinosaure[6].
-Giganotosaurus aurait dû apparaître dans la série Le Royaume des Dinosaures mais a été annulé[7].</t>
+Les Mapusaurus sont dépeints comme des chasseurs en meutes dans Planète Dinosaure.
+Giganotosaurus aurait dû apparaître dans la série Le Royaume des Dinosaures mais a été annulé.</t>
         </is>
       </c>
     </row>
